--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.47952175332741</v>
+        <v>1.815493333333333</v>
       </c>
       <c r="N2">
-        <v>1.47952175332741</v>
+        <v>5.44648</v>
       </c>
       <c r="O2">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905278</v>
       </c>
       <c r="P2">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905277</v>
       </c>
       <c r="Q2">
-        <v>19.91521997758143</v>
+        <v>34.17664868638222</v>
       </c>
       <c r="R2">
-        <v>19.91521997758143</v>
+        <v>307.58983817744</v>
       </c>
       <c r="S2">
-        <v>0.001216273055959416</v>
+        <v>0.001686884292756108</v>
       </c>
       <c r="T2">
-        <v>0.001216273055959416</v>
+        <v>0.001686884292756108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.6541007558785</v>
+        <v>5.684019666666667</v>
       </c>
       <c r="N3">
-        <v>5.6541007558785</v>
+        <v>17.052059</v>
       </c>
       <c r="O3">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663094</v>
       </c>
       <c r="P3">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663093</v>
       </c>
       <c r="Q3">
-        <v>76.10747194185484</v>
+        <v>107.0016285421891</v>
       </c>
       <c r="R3">
-        <v>76.10747194185484</v>
+        <v>963.014656879702</v>
       </c>
       <c r="S3">
-        <v>0.004648076575818323</v>
+        <v>0.005281365301304775</v>
       </c>
       <c r="T3">
-        <v>0.004648076575818323</v>
+        <v>0.005281365301304773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.3954542348519</v>
+        <v>61.37607633333332</v>
       </c>
       <c r="N4">
-        <v>56.3954542348519</v>
+        <v>184.128229</v>
       </c>
       <c r="O4">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891429</v>
       </c>
       <c r="P4">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891428</v>
       </c>
       <c r="Q4">
-        <v>759.1154873504313</v>
+        <v>1155.404186883773</v>
       </c>
       <c r="R4">
-        <v>759.1154873504313</v>
+        <v>10398.63768195396</v>
       </c>
       <c r="S4">
-        <v>0.04636111048058625</v>
+        <v>0.05702821223122084</v>
       </c>
       <c r="T4">
-        <v>0.04636111048058625</v>
+        <v>0.05702821223122082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.5968021266033</v>
+        <v>5.243698</v>
       </c>
       <c r="N5">
-        <v>3.5968021266033</v>
+        <v>15.731094</v>
       </c>
       <c r="O5">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517345</v>
       </c>
       <c r="P5">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517343</v>
       </c>
       <c r="Q5">
-        <v>48.41504047239637</v>
+        <v>98.71257639621467</v>
       </c>
       <c r="R5">
-        <v>48.41504047239637</v>
+        <v>888.413187565932</v>
       </c>
       <c r="S5">
-        <v>0.002956829464904141</v>
+        <v>0.004872235898501391</v>
       </c>
       <c r="T5">
-        <v>0.002956829464904141</v>
+        <v>0.00487223589850139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.47952175332741</v>
+        <v>1.815493333333333</v>
       </c>
       <c r="N6">
-        <v>1.47952175332741</v>
+        <v>5.44648</v>
       </c>
       <c r="O6">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905278</v>
       </c>
       <c r="P6">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905277</v>
       </c>
       <c r="Q6">
-        <v>178.7212781732283</v>
+        <v>221.1650178918845</v>
       </c>
       <c r="R6">
-        <v>178.7212781732283</v>
+        <v>1990.48516102696</v>
       </c>
       <c r="S6">
-        <v>0.01091496229584324</v>
+        <v>0.01091621938161533</v>
       </c>
       <c r="T6">
-        <v>0.01091496229584324</v>
+        <v>0.01091621938161532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.6541007558785</v>
+        <v>5.684019666666667</v>
       </c>
       <c r="N7">
-        <v>5.6541007558785</v>
+        <v>17.052059</v>
       </c>
       <c r="O7">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663094</v>
       </c>
       <c r="P7">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663093</v>
       </c>
       <c r="Q7">
-        <v>682.9964559413963</v>
+        <v>692.4323478335493</v>
       </c>
       <c r="R7">
-        <v>682.9964559413963</v>
+        <v>6231.891130501944</v>
       </c>
       <c r="S7">
-        <v>0.04171232793875358</v>
+        <v>0.0341769394089849</v>
       </c>
       <c r="T7">
-        <v>0.04171232793875358</v>
+        <v>0.03417693940898488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3954542348519</v>
+        <v>61.37607633333332</v>
       </c>
       <c r="N8">
-        <v>56.3954542348519</v>
+        <v>184.128229</v>
       </c>
       <c r="O8">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891429</v>
       </c>
       <c r="P8">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891428</v>
       </c>
       <c r="Q8">
-        <v>6812.38220482054</v>
+        <v>7476.888386845448</v>
       </c>
       <c r="R8">
-        <v>6812.38220482054</v>
+        <v>67291.99548160903</v>
       </c>
       <c r="S8">
-        <v>0.4160494803445737</v>
+        <v>0.36904278398384</v>
       </c>
       <c r="T8">
-        <v>0.4160494803445737</v>
+        <v>0.3690427839838399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.5968021266033</v>
+        <v>5.243698</v>
       </c>
       <c r="N9">
-        <v>3.5968021266033</v>
+        <v>15.731094</v>
       </c>
       <c r="O9">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517345</v>
       </c>
       <c r="P9">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517343</v>
       </c>
       <c r="Q9">
-        <v>434.4816640627479</v>
+        <v>638.7919694865154</v>
       </c>
       <c r="R9">
-        <v>434.4816640627479</v>
+        <v>5749.127725378639</v>
       </c>
       <c r="S9">
-        <v>0.02653489853000899</v>
+        <v>0.03152936818216767</v>
       </c>
       <c r="T9">
-        <v>0.02653489853000899</v>
+        <v>0.03152936818216766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.47952175332741</v>
+        <v>1.815493333333333</v>
       </c>
       <c r="N10">
-        <v>1.47952175332741</v>
+        <v>5.44648</v>
       </c>
       <c r="O10">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905278</v>
       </c>
       <c r="P10">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905277</v>
       </c>
       <c r="Q10">
-        <v>109.2400593642035</v>
+        <v>159.1708090769334</v>
       </c>
       <c r="R10">
-        <v>109.2400593642035</v>
+        <v>1432.5372816924</v>
       </c>
       <c r="S10">
-        <v>0.006671567825294169</v>
+        <v>0.007856321436342174</v>
       </c>
       <c r="T10">
-        <v>0.006671567825294169</v>
+        <v>0.007856321436342172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.6541007558785</v>
+        <v>5.684019666666667</v>
       </c>
       <c r="N11">
-        <v>5.6541007558785</v>
+        <v>17.052059</v>
       </c>
       <c r="O11">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663094</v>
       </c>
       <c r="P11">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663093</v>
       </c>
       <c r="Q11">
-        <v>417.4688887366916</v>
+        <v>498.3383813871717</v>
       </c>
       <c r="R11">
-        <v>417.4688887366916</v>
+        <v>4485.045432484545</v>
       </c>
       <c r="S11">
-        <v>0.02549588513927232</v>
+        <v>0.02459688765137694</v>
       </c>
       <c r="T11">
-        <v>0.02549588513927232</v>
+        <v>0.02459688765137694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.3954542348519</v>
+        <v>61.37607633333332</v>
       </c>
       <c r="N12">
-        <v>56.3954542348519</v>
+        <v>184.128229</v>
       </c>
       <c r="O12">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891429</v>
       </c>
       <c r="P12">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891428</v>
       </c>
       <c r="Q12">
-        <v>4163.941999927545</v>
+        <v>5381.060645376988</v>
       </c>
       <c r="R12">
-        <v>4163.941999927545</v>
+        <v>48429.54580839289</v>
       </c>
       <c r="S12">
-        <v>0.2543025116865764</v>
+        <v>0.2655973312173037</v>
       </c>
       <c r="T12">
-        <v>0.2543025116865764</v>
+        <v>0.2655973312173037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.5968021266033</v>
+        <v>5.243698</v>
       </c>
       <c r="N13">
-        <v>3.5968021266033</v>
+        <v>15.731094</v>
       </c>
       <c r="O13">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517345</v>
       </c>
       <c r="P13">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517343</v>
       </c>
       <c r="Q13">
-        <v>265.5688413825492</v>
+        <v>459.73380231733</v>
       </c>
       <c r="R13">
-        <v>265.5688413825492</v>
+        <v>4137.60422085597</v>
       </c>
       <c r="S13">
-        <v>0.01621896351833224</v>
+        <v>0.02269145044309605</v>
       </c>
       <c r="T13">
-        <v>0.01621896351833224</v>
+        <v>0.02269145044309604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.47952175332741</v>
+        <v>1.815493333333333</v>
       </c>
       <c r="N14">
-        <v>1.47952175332741</v>
+        <v>5.44648</v>
       </c>
       <c r="O14">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905278</v>
       </c>
       <c r="P14">
-        <v>0.02204100383070096</v>
+        <v>0.02449420924905277</v>
       </c>
       <c r="Q14">
-        <v>53.02220420989589</v>
+        <v>81.74561860203555</v>
       </c>
       <c r="R14">
-        <v>53.02220420989589</v>
+        <v>735.71056741832</v>
       </c>
       <c r="S14">
-        <v>0.003238200653604135</v>
+        <v>0.004034784138339172</v>
       </c>
       <c r="T14">
-        <v>0.003238200653604135</v>
+        <v>0.004034784138339171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.6541007558785</v>
+        <v>5.684019666666667</v>
       </c>
       <c r="N15">
-        <v>5.6541007558785</v>
+        <v>17.052059</v>
       </c>
       <c r="O15">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663094</v>
       </c>
       <c r="P15">
-        <v>0.08423131065103646</v>
+        <v>0.07668745708663093</v>
       </c>
       <c r="Q15">
-        <v>202.6282372849803</v>
+        <v>255.9324759098368</v>
       </c>
       <c r="R15">
-        <v>202.6282372849803</v>
+        <v>2303.392283188531</v>
       </c>
       <c r="S15">
-        <v>0.01237502099719225</v>
+        <v>0.01263226472496433</v>
       </c>
       <c r="T15">
-        <v>0.01237502099719225</v>
+        <v>0.01263226472496433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.3954542348519</v>
+        <v>61.37607633333332</v>
       </c>
       <c r="N16">
-        <v>56.3954542348519</v>
+        <v>184.128229</v>
       </c>
       <c r="O16">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891429</v>
       </c>
       <c r="P16">
-        <v>0.8401447427379729</v>
+        <v>0.8280715929891428</v>
       </c>
       <c r="Q16">
-        <v>2021.066121011901</v>
+        <v>2763.560314497117</v>
       </c>
       <c r="R16">
-        <v>2021.066121011901</v>
+        <v>24872.04283047406</v>
       </c>
       <c r="S16">
-        <v>0.1234316402262365</v>
+        <v>0.1364032655567785</v>
       </c>
       <c r="T16">
-        <v>0.1234316402262365</v>
+        <v>0.1364032655567784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.5968021266033</v>
+        <v>5.243698</v>
       </c>
       <c r="N17">
-        <v>3.5968021266033</v>
+        <v>15.731094</v>
       </c>
       <c r="O17">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517345</v>
       </c>
       <c r="P17">
-        <v>0.05358294278028983</v>
+        <v>0.07074674067517343</v>
       </c>
       <c r="Q17">
-        <v>128.9000154478599</v>
+        <v>236.1062576777607</v>
       </c>
       <c r="R17">
-        <v>128.9000154478599</v>
+        <v>2124.956319099846</v>
       </c>
       <c r="S17">
-        <v>0.007872251267044463</v>
+        <v>0.01165368615140835</v>
       </c>
       <c r="T17">
-        <v>0.007872251267044463</v>
+        <v>0.01165368615140834</v>
       </c>
     </row>
   </sheetData>
